--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/41_İzmir_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/41_İzmir_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E18BBFAE-C717-49F1-8DEE-77555D644237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAC346DF-823D-4744-8217-FD0AD7C69430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="681" xr2:uid="{222F1631-B403-4C1C-9F46-CA8F6E1A8700}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="681" xr2:uid="{697536B9-1763-49F0-B5FF-7801E6B8798A}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -954,13 +954,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{F0F2FF63-C544-4400-BFFD-9FB712C3AAB8}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{CF0A56F9-65CB-4F58-B91D-DC34043AC47C}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{424D19E3-275D-4F59-AF68-0385C3C98A13}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{C1EF34D7-29BC-4E16-A8C8-753C389AE1BE}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{46979F05-AA6F-4739-B933-3C46085D3FD2}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{C8307448-B72B-440B-9205-34E220FF90C9}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{6C370620-20E8-4673-A832-F5BADEA46554}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{BBAE11DC-0C94-41D8-879E-521066F3238D}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{0E3B37B0-EF00-437A-9072-90D1B4037BBD}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{FB5C54FF-BBA3-420F-85D6-19CEA03A6EB8}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{65A433E8-26CA-4E9E-9B1D-571D89BFE7C1}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{1EB733DC-020B-47B5-A741-4716217C89E6}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{7C8A1AE8-A6F1-49A6-9C1C-2AEC3D2000C2}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{CD8B1046-C8F3-48CA-9598-D71B21A42F9B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1330,7 +1330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F10BC24-11C3-4079-BE96-F723D1C96B8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E536CC-DD3C-4FD2-812E-F92859063287}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2663,18 +2663,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9AD53F72-0D68-4B59-9AA6-927ECF0A89C4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CBAFC6D6-01DE-433E-93A4-689831142050}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D93638DC-134F-4B20-823C-B0491CAB6A10}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{52256FAE-E35C-4050-A25F-E7FD63F97861}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7B2B8049-FDAE-4634-B6A3-238E724FF444}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E0EF6A0B-169D-469E-8CD3-45F98555E461}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1543EADE-6186-4162-9B5A-4FB4BFEC7022}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EEB75B81-BD01-481C-8F61-67039EF70658}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{53851073-2BD9-4F2B-A976-7F3C9645D3FA}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{31A2C667-7F40-4B4F-9729-FA486B5E1B8F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2CABF898-2E6C-4A5C-BD77-B426DA7EFFB8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7DD1C5B6-C677-4432-A2FA-4CA93F7A14E4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6304DD24-FAD2-4CE2-A183-20BA0F9B4B6B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{196DEFD8-A59E-4D8F-BCAD-A1BABC0E640A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D70E1D33-2096-4CDD-AC15-B79F3B3500A6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{96559647-C105-42B9-B1D3-0A89FDFC5484}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EE582BB0-82F4-4F98-99C2-C3F7E8853A64}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E1826902-BD28-43B0-9A13-D486F0BF92EB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9E65D608-7EF6-4006-8E5B-A7FA32A3C54E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FB9DDF47-E332-44C8-B8F8-E29D81692851}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4BD26A6A-5518-42E3-9130-D13746D36C98}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{898F98DD-49F6-44CD-8A96-E7617077CBB4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{14E23A56-DBDB-4215-B9B9-C21B7EA7FF5B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{324290AC-6B8A-4107-A682-D852C74FDF8E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2687,7 +2687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1492D5E9-2553-4A62-A320-54ADB3C40BCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA7259B-A3DB-4AD3-AA4E-F83EE9F42275}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3980,18 +3980,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BD6C5DAC-B6CC-411A-9351-38D7A3C78B86}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{581D01FB-855F-4957-AC1F-96E8F6E94BFE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E8DB7543-D98E-4D3B-A7DC-2B82F01D9553}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6A7534EA-5D86-4905-BEBB-B1A9BA7AB7AF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5B8036A2-0A4E-4122-A513-4E93A280C8E1}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A65585E2-93FD-4F1C-B545-9C21DAC7A727}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8354D9DE-0E2E-4886-9D65-C933F5D668B7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EAC444E5-4134-4FBF-A385-870FBAC972CE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{72824FBB-A952-44D8-9973-951EC3F3D208}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B17E191F-D670-446A-9BF2-61FEC951F89B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3D4359C4-5FC5-43F0-8544-B33DECC07A2F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CC2CE50D-E208-4364-91EB-613E93063967}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{019FEC62-6AE0-4FA8-B3BE-58DD6FE21B6A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DE6051D3-DD7D-4879-A555-EACD7C9DF53E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0B5502CE-0CE3-46F4-9E05-D7298B409E9F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0DACB0F0-8CFA-4430-B73C-8EB3570321B7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D320F5D5-4DC8-4D04-B310-E3DBCD409D62}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A10B07EF-392D-4AFC-BB40-4BE95E196243}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{16808A26-1976-4DF7-B677-DEEF21F41FE4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{24F25DBC-A6DD-4B44-8A05-7FA56BA4E43B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4AAA1340-FAD8-4D22-B2B8-8735EA6B4E9C}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{86621DF5-C312-42D9-AB51-663FE19A8762}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D3722E60-A722-448E-B1A1-8F9B0B23E1E6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D4E9EF30-3D65-44B4-8A8C-15DEE627872D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4004,7 +4004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3037A2-78DA-40C3-9BEA-DD74B856709B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5838469-4249-419D-9F67-B8C3D4FCE893}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5291,18 +5291,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8BE57422-4478-4624-A0BD-93A1EC653EA3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3758D478-8463-49B6-A435-9FCA7D7332B5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{879EAB0A-46C9-4604-A1E3-D18250AD7F9A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C047663B-4FE3-470F-956D-BDD1CBD86818}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B1E12A91-6B46-4BAC-A0AB-1B50556CEFEA}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EAB58EF6-FEE8-49C4-9184-DCE959162C82}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1A79203F-46B7-44DD-90A1-C3D7A7F07EB9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4E840186-D3A9-4B3A-ACC1-BD7F07ED9577}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{37217970-FEF3-4DB6-823E-FD9401AF7B2C}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{DC28446E-89EA-46BE-BD91-859332C4FFFB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E0BD98AB-0C9C-43C0-B3B9-EB34598049F1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2D529F26-2FFF-4AB1-8CDA-F1D62D4B016B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8B8443EF-5D04-4837-877E-9E6FF7796228}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EDB5A42B-5E6D-4E01-8492-5449BADD2AB5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F136BA3C-C1D6-412A-AA27-E426EC05B27E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0DE26937-585F-4805-A917-BA62B46766D4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A6360C0E-650C-412F-BA48-9A6D9D21ACA8}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DF4D951C-04A6-499B-BDB0-ACD3FB1D09F5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F744A6B9-AD9D-42D2-8199-6CD88312BE88}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{57374992-0B4A-494E-83D9-0B130323D732}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F73250F7-C91C-458C-AC90-098E1A6B7C9B}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9577BD14-8352-4B56-8262-CC3123BE8129}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{88072C3B-B4D5-4C7A-8491-CCAE86179914}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A9077BC5-8561-4729-B3F8-F0EF3827D39E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5315,7 +5315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7C5F21-30C6-482C-BFF1-36A3A8B63A64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F008CF-5A77-4BBA-99BE-0D0200ECAA62}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6595,18 +6595,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{572FAA6D-DE9A-4845-9855-03B3DEFB48C6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7C410988-A665-4800-B88E-B7D04522880D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A6ACB5AF-F286-4FB1-9D5A-281B177151CC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E4F51C58-1121-4367-A6F6-8C2245D425D3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D8E564E6-8A87-4316-A73C-8EF20DAC971E}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{019AFFDC-879A-400A-9370-1D00B65DFF07}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F6085D42-F194-410A-B08C-52CBD85F53CB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{90853AF4-E900-4205-9E4C-84CF4744D2C1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C93671CF-FBF7-4BA8-BDA6-061973C00238}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F93EC1D6-9AEA-4700-B8AC-543F2B6CB695}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3E2F4BB6-1B5E-4D1F-B58D-55F0A82054B2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3237B63D-ADB8-4760-AC6F-6E15CC0D83DE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FFF7E523-7C26-4B2C-800D-B45AF7F6B93C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3AADF081-CD54-41FE-AA20-B218B3F057EC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BC16F854-D73C-4DCD-B8BC-1BA12EB6F586}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D9565A7D-5A41-454E-800E-42EC00582090}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CDD4A604-5694-461F-A35B-AA159D6107BA}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CDE2E12D-27C4-4B3D-A9A2-05648592DE9B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F9D71DAB-02DD-48C0-A61D-E2B130A7B7E6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{33024AD8-8602-4F8E-AAF6-5B3FB533162A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9B86A25D-4B83-48E3-AA84-7BEF3A2F6ED6}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{8520FBA6-6B52-4BBA-A333-7307AF31B30F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{30EA0EF7-333E-4775-8F51-F458AC06B64B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{48CBD2A9-35A3-4D86-A018-9074723AC625}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6619,7 +6619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA18E90E-B814-44C8-8899-AEBB4E019775}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BA78FA-68C1-48C5-AE62-70EBD1B78E9D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7952,18 +7952,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{34EF9334-CF9D-451C-9B9E-AE886342D271}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{57268B17-F3A9-4978-9DF1-DF4D15A31096}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1F520607-8F2E-48DB-A2D3-27EBAB90EA73}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F67776F3-B946-455C-8F07-09D928C3F79E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{22B62E7F-B934-43D4-B64E-51A0D69C369B}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{79144629-60FE-4A21-84EF-427C2844721B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9A7BF6B3-BA83-4D9A-8AA4-4B8A4CDDC473}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{64AA1B8C-A2C0-4B5A-B93F-2919C882DC1F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7D154D1B-4A18-4DFF-B2BF-C8764118E4B6}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{5FBAF0D9-2937-4085-98C4-1F9CC45DA62A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{232E47BD-DFDD-4D9A-978F-B08E57EA02CC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{96B36790-B879-44C0-99E8-55910D944527}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{91B41CF4-2D46-450F-B108-1D73FD0BC15E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{70290FFD-1004-4524-89B7-E977BD10C73B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C7D1FFD7-5730-4595-90FD-00BCC958DCC5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BA4F4D45-FEBF-425F-B6C2-8F89E0BE1C2A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{137A93AB-B587-4BFB-A263-6EC64D22EAE9}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EBAAAE44-8D9A-4CD0-B32D-6D14CE9B5A2A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4F974114-9CC7-491F-A34B-9877E6E91D7A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{83C20A9B-00C7-46DA-83AF-FF59C2E6E228}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4331918E-4880-4EBE-89BB-AC5B8843A1BE}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{19861E8C-1416-4FCF-B3DE-9901F735B958}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6CE4D28B-849A-4067-9459-240E65DF5795}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{82F97240-54C1-492D-A098-AF8A0DE201D1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7976,7 +7976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8474990-2E3C-4964-8E99-3C66F0C1DE25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934AAC15-890B-4933-A89A-97882693B447}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9309,18 +9309,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E8F71D42-DE93-42B0-BA67-539EA71679B5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5F226E54-3486-4201-86C7-24EF8F630404}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B18541BC-3387-4309-972F-CD32C218D002}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9D34FC2B-7CCF-4D02-BBD9-C6F24FF66E66}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D584A339-85E4-4EBD-B2C6-9AA36BE151D6}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E35E9CC6-2AB9-4E3B-8DA5-209C88A4180E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{883F6B4E-DA09-4E70-BDFF-993D49FA2B1B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6BB795E3-265C-403B-897B-E73318AD9439}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5D75B4C5-89BA-448D-9594-5B2E23F59253}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{94BE2303-862C-4A7D-8045-B69B02AA7C5F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6C585DAD-140A-40E9-B494-871376F80B25}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B201DC5D-EA2F-48FA-B21D-DC511D8D9A73}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7C8F03EF-7AEA-426D-96BE-5077A54F811D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{65E35EE6-9F2F-41C4-9AF2-5F76FF04F633}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2E00B7DA-87FB-40D4-B19D-180B1824DD88}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4C54E34D-B881-4042-AF47-544F358DDCA4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8EC121E0-8EB4-408D-A43E-C4299CF7969D}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{481FC328-8EAB-442B-AD36-496A1BE02783}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CDED963F-390C-4CA1-801A-C81EE999C357}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1FA2D0BB-0093-4C65-B251-228FFA10280A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4118871B-D8D2-4B7E-8CB9-701785C49C36}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3D5D219B-C31A-488D-941C-E0E068BF2D82}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9D068EA6-843B-48F3-8E40-0FBE83661B76}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C1531196-8ABE-4990-9AB5-B9C6FE16B028}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9333,7 +9333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB533378-7A18-48D9-92AE-F6919FBECB50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7A5CE6-F012-4398-A538-883F9EB3187D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10666,18 +10666,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2DD97697-4A58-4441-B933-6761F9E9FD4A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{02D5C644-EA08-4CD9-A286-E1015A470174}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CA1B9ABC-2688-447D-99F0-41790425AAF6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{23ED88E4-415B-4D72-9582-BB7CD3883F61}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{14B50C27-5EEA-4099-8227-493933AAC559}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E1732D17-4364-4F25-88E4-01C6A0085EFD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0CD45414-4AA7-4A2C-9BE5-608C48BE6A2E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CB6C9638-3B5C-4DC1-9DB3-98BBF01AAE32}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B0412E5E-FFA5-4955-B637-84D8FE5E0C62}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{12B15A24-986A-40E6-B62F-84662558A782}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{234EF540-87BF-4251-AAAA-892234DEDEE2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0277F9F2-1DBE-4C1C-A27A-43CB6EAC232D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{42D51A83-8227-40E2-8A06-21711D177935}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6D45D511-3112-4DCC-A1B9-533B91E3839C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A27CBADD-80E0-4AE7-8804-1B4F4013E10C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FA646881-B587-4226-B3B7-C26C055D3917}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4589EEAE-E1B1-4A0D-ADF4-CEF454F9B1BB}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C7E1BA44-B5B9-4EAC-A0B3-2EAC454748E3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{10408E72-3B49-4834-8823-B30541B77B55}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{042EAE62-582F-4D3B-B487-06454B5F7588}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9497F9EF-CAC9-42B6-9C6B-02734512778E}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{840D545F-FB94-4648-8492-AE124BFBD0BA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2CAA806B-7E07-47AD-8E51-7150B95D5960}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1C5068EC-591F-45BA-B51F-8326E313AEF0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10690,7 +10690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91310234-23E5-45A1-913A-A76679092326}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CADD4F4-2718-47F4-8623-E347C44892D0}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12019,18 +12019,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3E41B552-C449-473F-A5A6-3D81F0C8192C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0F265CBB-B330-49F8-825C-1212BFC8C81B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4C89B27C-FD85-4B78-8091-E6C309E1A539}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A968A3BF-CFF1-4551-8F98-940732F29F3C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1AFA1DC7-55E7-4AAC-BC48-6DFF0FE1E5BD}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C0D5087F-EA53-4C5A-A3A7-95EF3C576120}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AD0F4B11-C20A-429A-B466-1651BF58176F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5E5A3AE9-F2AA-4262-8A8F-1D57147B9613}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0BE9F956-5D86-48E4-9BD8-8881E194A565}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D328D804-7C2C-4E7D-8252-69527CDDEEF5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4A0B3543-314C-4DBF-8CDD-AEC0E036320E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{82E0FF08-9790-4253-8DC2-A0298758BD9A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{29ACCD9B-7AB4-422A-9A72-F0170A01025C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FDED37F4-0DC1-40E6-972F-A9226B9BD39D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F4A4C6AF-896E-4914-A71B-1A74E23D25B1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F41FD237-540B-4785-BB11-2F8B4E43719F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{96FC21CB-506C-4959-B0E0-723504CE265C}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{84E9EA9B-A20C-4400-A47E-6DF3E02AB808}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6ED4F34C-65C6-4968-B711-F59A88CD9C82}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EBCE1616-358B-4C72-B49B-A1C6A3C2C307}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1AF60F19-1C8D-4827-959A-557D94C4AA57}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2C583AFE-4624-4AC7-9227-42DB1B77D5A1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CBFB59DD-C6FC-4DC8-9383-BBDFFFEF1D07}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6E2C26F7-5D34-4344-BB32-600FF98519B6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12043,7 +12043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3DA41B-4A86-497C-BD01-792E883909F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1049582B-88A3-4694-8847-7B8D39223290}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13360,18 +13360,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C97251D0-691E-4332-9114-432A8DCACEAB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{904649FE-2005-4D5B-A34B-D75F66F5BF3E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6CD565AD-15DF-40A7-A665-CBC80CE8463D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4D23E8C2-CF4F-4A90-B054-EDCE1D59C402}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{28A2671D-886F-49DE-AC2B-0921ABAA77A0}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A7BC88D7-258A-4862-9085-99BD51EF5686}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{78D9C46F-C9E6-4E53-9CB7-557B22A0FDC1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FA1879A1-6AB2-463B-998F-F42814638D3B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{666FDED7-9038-4D00-BAC7-27D937202364}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E9294797-2E51-4EA2-A4C5-FC3B82077635}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9A334D8C-59AB-4C3F-80AE-655D920FDEBE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EB634AFE-7A53-4E47-82BB-9FBD59AD168C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A3E54262-F222-4FE4-A778-54AB99BED184}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B18D530D-081E-4A71-B1CE-FFFDAD09A43E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6D36680A-9DB5-486E-ABC9-86A23DD20622}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4816EFC9-F057-46A2-AEDB-1CB0D1687302}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{871A238D-3F78-4F77-B3CB-2C64B0E6E6C2}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C5C40803-32AF-4BD5-9CE0-B2B76A745B77}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6C407D6F-44F5-4786-B0B1-60352EE8AFE4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{039095C7-C1CB-4C56-BCE9-AAABE50E5E1A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{941037D4-FBB8-46B4-A8AC-137D344F0F6E}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{174D6505-C7D8-4A85-825B-B57D3B9DB839}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6F8B77DC-0D90-4B1A-9A98-DD63EE41A9BF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8C3265FC-B8DA-43BA-844F-E2661DBB8168}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13384,7 +13384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FA8BFF-3EF0-4928-8B9E-2A029EA5F51C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B45CA3-D921-40D5-82A6-DD4E4BFD1B5E}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14687,18 +14687,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FE34889E-61D3-4043-ACC6-A65E03990C2F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B07D4765-8D9F-49E7-95D6-7A30A62F501C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C349553A-1EC1-4286-8AC6-EEE09EAD610C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F829B997-D9B2-4B35-846A-EF7CE795D2E8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ABBE9314-D8AE-45AB-B4B8-01441AEFAAAD}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CDAA727E-1F2E-428D-BEDE-7AAC0C8E22BD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EB772028-2376-4BAF-8F49-496020D935A5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FDB7FE56-588D-4EDB-8923-200A767E7E3B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8B8793C4-1217-4165-841C-FC7FD0695AF9}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{FD3B7607-4DE3-4FCD-BA98-3E3CF5591958}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FF96C126-2864-48A8-B53A-2B644BCD1836}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F0D8ABD7-E1DF-42F8-AF78-EBB6145D8075}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{790C78C6-5D20-45A5-88B7-5A1D26524C9A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3AA84034-C0A6-46F3-9E25-6C832F02686B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{74DFD9ED-3EB8-4B6C-A85D-1DB7AA54FA3B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{ECBA2EC2-54B9-4B29-A468-5299DBEE0C0C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3122C151-EBBD-47E3-83E6-6963385DB324}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F00E7050-53ED-4089-BE18-1F1486715DBC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E183C91B-D48F-4805-9C34-A3AB800AAED7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{28898066-717B-4F28-9AD6-CD37B8A7A0E9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{849BB915-5288-4C99-B9F0-D7A472A603B1}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{1A06E16B-0F9D-4420-BBE4-F4BC5548C6BF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CBFE03B8-402C-4266-B4E5-898911654D08}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{058AB657-7FC6-43B6-8D2E-4BF31017BB1E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14711,7 +14711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79594447-7B51-4574-BB2E-CC1A4CEE94E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9D7DD4-74C7-4808-9D08-58F1D6DF439F}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16014,18 +16014,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AC88843F-A8E4-4659-AC96-C7767E996BFE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{19640A33-5DEC-446D-BB67-60253C479D5D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2F20BF71-A268-47B5-BBB1-2FDBD49012B8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{100000CE-3381-4EFF-B1F2-4151B925309E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{40577264-5002-4CE7-9560-DDAA210876C1}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8DFEB7D6-4F92-4305-B3F6-8B75BE8C723B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CEF26A47-A32D-40A4-ADFC-7454952F044A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B49DEE6C-FF04-47A0-8FC0-00A0C0DAC8A3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C6EBA802-53F2-41A2-B157-9C9CA2788251}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{7F78BEC9-161A-4705-99E4-000F627C404F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{104AC7B4-0196-44C7-A1DE-07E66FD91BBE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6E015E9E-4F73-4CD9-96B4-7D72CFAC0A38}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4B17BC94-8453-4FFE-A460-BFC17CF4DF96}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EB12CC94-4A04-4870-8CBF-DA8B81823726}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{24518EB8-0CA9-4263-888D-299698ACBB64}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A3C2320A-018C-4237-969B-EA26F00684F5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4A0405CF-90A4-4D76-8C56-74F75ED465C5}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{186879F7-DC46-4023-BF4E-2303D2E68D82}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{098CD9AC-8997-4F26-A731-77A3AFE02C4A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F7A17D66-BD28-46BF-A7BB-27E35E229D5A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1A43E4E1-80A8-4334-983F-2E63E096EC3A}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{5296BF96-8EE0-4FF8-9AAD-545B9CAD873D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0FA60A69-CFB2-4ACC-8883-A6A80DB9E072}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{56A8AE9F-3F27-4269-958F-6D3AA323D198}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -16038,7 +16038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD10C44C-250D-41DF-83BC-AB6C945DF443}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216B96B5-71E9-4965-8A2C-8EA2AED02885}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -17341,18 +17341,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{783FF6D9-8787-41AC-9FC6-25EA92EB8AEE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{763A737D-E9BD-4FCF-AAE3-4E19651EB72E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{01C2B2DA-4119-4002-8856-2CDF9B8D356B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{98937689-1EB2-41D8-BD44-E882934CAFBF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CE143AB3-A8A6-4BFB-96B4-99E34A9D43F9}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D536A277-B68E-4543-A9BE-5437512524DE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{428E6AFC-51D7-453B-A3F6-B91BB46442F0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C57DBBD5-26F0-4FD4-AF1C-BF92FE819C7B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E01ED414-C79E-47F9-B1E6-FF6CCB71BFD7}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{BA271053-4890-4E6E-9053-95D3F523387E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{350B11E7-9BC4-44AA-874F-ED7B5A6473EE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CE780CB7-934F-4FEF-87CD-70D8AE62D7C1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2ECFCE85-A313-4BA5-8F92-08B87F5CFCCE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2D6C256C-B700-4619-9187-744B7F9652CC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{42871FAB-0955-410B-A88B-0D88CB3B2BDD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7FAA7888-AD0F-4A92-B350-88AE46A2F4E9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C9C3B99A-9C9A-4617-8E46-3B10A12B51E3}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0ADAAB8C-777A-48D7-877C-3AEE96E9BF81}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E4C37BD8-7836-49EA-8593-4C78029987C6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F17652B0-FB1C-4B60-8050-9B1624ED7D34}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{78FF2688-13C1-40E7-889D-55D5D6533A7D}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{648C5CF3-8544-42E6-B8A1-86E52FA33657}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2A5C28B6-088F-4D1A-8E13-D5CC92A70A02}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CFE27F13-E8E5-4B44-AC17-4332BB08F5F5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
